--- a/data/trans_bre/P38_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>-7,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-17,22%</t>
+          <t>-33,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>-58,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>-17,88%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 8,39</t>
+          <t>-13,52; 6,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 20,53</t>
+          <t>-24,05; 5,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 12,15</t>
+          <t>-20,55; 11,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-79,98; 237,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 109,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,96; 173,16</t>
+          <t>-85,72; 165,66</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,79%</t>
+          <t>93,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>117,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>64,29%</t>
+          <t>162,02%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 15,51</t>
+          <t>-5,19; 18,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 20,97</t>
+          <t>-3,72; 20,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 19,15</t>
+          <t>-0,48; 26,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 414,15</t>
+          <t>-48,42; 670,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 167,92</t>
+          <t>-38,42; 927,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 323,09</t>
+          <t>-19,6; 1072,05</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,87</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,67</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,73</t>
+          <t>14,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>218,38%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,09%</t>
+          <t>57,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>198,88%</t>
+          <t>237,61%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 17,27</t>
+          <t>-4,82; 13,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 32,76</t>
+          <t>-5,16; 14,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,05; 27,55</t>
+          <t>4,71; 27,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,17; 817,51</t>
+          <t>-41,42; 711,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 162,68</t>
+          <t>-40,67; 473,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,2; 488,66</t>
+          <t>12,97; 1131,75</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>-5,81%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 11,1</t>
+          <t>-6,89; 9,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 16,82</t>
+          <t>-8,67; 8,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 16,58</t>
+          <t>-14,81; 9,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 186,04</t>
+          <t>-59,7; 329,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 70,19</t>
+          <t>-61,53; 237,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 97,44</t>
+          <t>-47,31; 56,69</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,39</t>
+          <t>13,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,64</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40,56%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>54,18%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>21,65%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 20,18</t>
+          <t>-10,7; 21,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,64; 35,84</t>
+          <t>-3,31; 30,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 30,09</t>
+          <t>-9,05; 28,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 128,96</t>
+          <t>-34,65; 143,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,79; 106,77</t>
+          <t>-13,8; 218,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,19; 106,9</t>
+          <t>-18,29; 79,1</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,22</t>
+          <t>-21,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-14,68</t>
+          <t>-14,39</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-7,79</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-30,31%</t>
+          <t>-32,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,79%</t>
+          <t>-20,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>-8,66%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,75; -4,71</t>
+          <t>-41,31; 0,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,99; -0,04</t>
+          <t>-33,44; 9,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 9,79</t>
+          <t>-24,72; 6,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,14; -8,6</t>
+          <t>-57,01; 0,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,9; -0,4</t>
+          <t>-44,58; 15,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 13,23</t>
+          <t>-26,21; 7,6</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,67</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>27,61%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 6,93</t>
+          <t>-5,69; 5,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,16; 15,83</t>
+          <t>-5,04; 6,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 19,02</t>
+          <t>-0,48; 16,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 44,62</t>
+          <t>-28,39; 41,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 47,76</t>
+          <t>-23,63; 44,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,11; 84,75</t>
+          <t>-1,97; 68,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-7,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,63</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-33,03%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-58,81%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-17,88%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.405252124113995</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.025820582406649</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.167754361084032</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.2342661086950623</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.576295068824296</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2086001010283539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,52; 6,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-24,05; 5,55</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-20,55; 11,4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-85,72; 165,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.50418597530231</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-23.8280622890706</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.63850060199572</v>
+      </c>
+      <c r="F5" s="6" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.8550496066374076</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.144199969271645</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.468806165738664</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.2037560077493</v>
+      </c>
+      <c r="F6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>1.546104316679469</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,69</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,34</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,79</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>93,47%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>117,02%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>162,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,19; 18,15</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 20,48</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 26,55</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-48,42; 670,01</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-38,42; 927,42</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-19,6; 1072,05</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.553047499230724</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.267486618333637</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.13438057078352</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.139202000084373</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.00389383592844</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.44729262217974</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,18</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>74,69%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>57,02%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>237,61%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.365660087868553</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.725128383545161</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.470772624094108</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4340959914039233</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4562314336053007</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2558844885013428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 13,65</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 14,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,71; 27,74</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-41,42; 711,6</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-40,67; 473,81</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>12,97; 1131,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>19.6234235241032</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>21.04830349923652</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>26.1128334439941</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>8.26075771170567</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>7.302122643313572</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>9.912742124372459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +767,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,39</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>18,72%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-5,81%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.267691633863333</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.726575483820435</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>15.08855495063595</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.8552081034810004</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.5993922716411055</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>2.402417668329638</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,89; 9,11</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 8,52</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-14,81; 9,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-59,7; 329,64</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-61,53; 237,76</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-47,31; 56,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.231965823479519</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.716429583355642</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.870379789263592</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4073251175540724</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3851843993315642</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.1241339740224385</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.47540156085543</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.01634190547878</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>27.50677337186984</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>7.553053802779008</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>5.003087588530716</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>11.40330178129472</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,36</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,52</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,82</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>27,7%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>63,44%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>21,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,7; 21,54</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 30,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 28,04</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-34,65; 143,07</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-13,8; 218,38</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-18,29; 79,1</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.7713792849835797</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.390993333191096</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.857389298596293</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.08142169125971019</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1336974090095895</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.07641106312694862</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-21,45</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-14,39</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-7,79</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-32,46%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-20,89%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-8,66%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-11.4738103955268</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-11.7526353070728</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-15.19545109311726</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.7326982987901677</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.7177542624223777</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.490110777830416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-41,31; 0,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-33,44; 9,15</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-24,72; 6,89</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-57,01; 0,98</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-44,58; 15,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-26,21; 7,6</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.606124726424268</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.14723916487914</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.584061652997114</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2.051673125415153</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.783510208472063</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.5325487732887436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +931,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,71</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,26%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>27,61%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>6.754595314395889</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>14.2220555375151</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>10.14412574875205</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.297644686615655</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.6818636844036804</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.2242989922360113</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 5,74</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 6,43</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 16,36</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-28,39; 41,15</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-23,63; 44,44</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 68,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.10224215189083</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.516214193948997</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-8.627700093448142</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.3343430852623812</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.1154658794621155</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.1716725959478231</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>22.16372062601822</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>30.76907509578682</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>28.72006575267507</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.497550977033678</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>2.261783677635098</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.8278309951809367</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-22.66172806965254</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-14.553555722115</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-6.552317910128624</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.3388916520882773</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.2085511101577459</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.07265222701069847</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-43.37670472326487</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-34.14239288737312</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-22.44348849360346</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.5906971233153377</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.4552759322128792</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.2389819860515819</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>-1.40941727070797</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>8.905207890938151</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>7.592999807512822</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-0.03149394175415075</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.1462503315066729</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.08639068888919516</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.8612118935614366</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.9955821538504384</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>7.944405877177174</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.05038409626087467</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.05519243285968034</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.2888780863811089</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.594820417723763</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.992695786583858</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.007728451785825056</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.3140563104178196</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.2401655808458493</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.008471861405803612</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.774296919241429</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.692701080045635</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>16.5842883096801</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.3456849654303167</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.4591483156304905</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.697577431578801</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1161,15 +1176,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
